--- a/data/trans_orig/P21D_2_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Clase-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4032</v>
+        <v>4012</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00489946294754105</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01729477361448373</v>
+        <v>0.01720886327034219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4398</v>
+        <v>3730</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.002391971262583411</v>
+        <v>0.002391971262583412</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009208484070048858</v>
+        <v>0.007809922468220587</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>232008</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>229118</v>
+        <v>229138</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>233150</v>
@@ -826,7 +826,7 @@
         <v>0.9951005370524589</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9827052263855146</v>
+        <v>0.9827911367296569</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,16 +838,16 @@
         <v>476418</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>473162</v>
+        <v>473830</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>477560</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9976080287374165</v>
+        <v>0.9976080287374166</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9907915159299515</v>
+        <v>0.9921900775317789</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4720</v>
+        <v>5257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004700770700240169</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02396831751650878</v>
+        <v>0.02669435797374159</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4566</v>
+        <v>3958</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004121294291352957</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02322288750753984</v>
+        <v>0.02012916079908726</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6098</v>
+        <v>6128</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004411257169176085</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01549473400631952</v>
+        <v>0.01557135114319476</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +1013,7 @@
         <v>196001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>192207</v>
+        <v>191670</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>196927</v>
@@ -1022,7 +1022,7 @@
         <v>0.9952992292997597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9760316824834913</v>
+        <v>0.9733056420262584</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>195812</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>192056</v>
+        <v>192664</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>196622</v>
@@ -1043,7 +1043,7 @@
         <v>0.9958787057086471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9767771124924601</v>
+        <v>0.9798708392009124</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>391813</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>387451</v>
+        <v>387421</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>393549</v>
@@ -1064,7 +1064,7 @@
         <v>0.9955887428308239</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9845052659936806</v>
+        <v>0.9844286488568056</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5754</v>
+        <v>5559</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004900529444549408</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03047079901386401</v>
+        <v>0.02943554780916357</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1180,19 +1180,19 @@
         <v>1915</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5924</v>
+        <v>5803</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02210718749282269</v>
+        <v>0.02210718749282268</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00545331084015981</v>
+        <v>0.005581128765818074</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06839025816987718</v>
+        <v>0.06699472708832746</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1201,19 +1201,19 @@
         <v>2840</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>838</v>
+        <v>599</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6741</v>
+        <v>7263</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01031136663787349</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003041661657048189</v>
+        <v>0.002173569991498184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02447025486675471</v>
+        <v>0.02636623370091392</v>
       </c>
     </row>
     <row r="11">
@@ -1230,16 +1230,16 @@
         <v>187912</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>183083</v>
+        <v>183278</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>188837</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9950994705554506</v>
+        <v>0.9950994705554507</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9695292009861358</v>
+        <v>0.9705644521908361</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1251,19 +1251,19 @@
         <v>84706</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>80697</v>
+        <v>80818</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86149</v>
+        <v>86138</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9778928125071774</v>
+        <v>0.9778928125071773</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.931609741830123</v>
+        <v>0.9330052729116727</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9945466891598402</v>
+        <v>0.9944188712341818</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>314</v>
@@ -1272,19 +1272,19 @@
         <v>272618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>268717</v>
+        <v>268195</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>274620</v>
+        <v>274859</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9896886333621265</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9755297451332453</v>
+        <v>0.9736337662990864</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9969583383429519</v>
+        <v>0.9978264300085018</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>9603</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4665</v>
+        <v>5323</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16634</v>
+        <v>17423</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01876275617810554</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009114703480147167</v>
+        <v>0.01039989215427714</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03249856748881465</v>
+        <v>0.03403932312050367</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1397,19 +1397,19 @@
         <v>13604</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8347</v>
+        <v>8806</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20784</v>
+        <v>20888</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03512983059844692</v>
+        <v>0.03512983059844693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02155422961357328</v>
+        <v>0.02273976761272925</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05366969153547772</v>
+        <v>0.05393661340365864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -1418,19 +1418,19 @@
         <v>23208</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16112</v>
+        <v>16013</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33723</v>
+        <v>33409</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02581244082513787</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01791980252628444</v>
+        <v>0.01781024003700936</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03750710798457529</v>
+        <v>0.03715811613079272</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>502232</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>495201</v>
+        <v>494412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>507170</v>
+        <v>506512</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9812372438218945</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.967501432511186</v>
+        <v>0.9659606768794964</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.990885296519853</v>
+        <v>0.9896001078457229</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>519</v>
@@ -1468,19 +1468,19 @@
         <v>373658</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>366478</v>
+        <v>366374</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>378915</v>
+        <v>378456</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9648701694015531</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9463303084645225</v>
+        <v>0.9460633865963414</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9784457703864269</v>
+        <v>0.9772602323872708</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1004</v>
@@ -1489,19 +1489,19 @@
         <v>875889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>865374</v>
+        <v>865688</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>882985</v>
+        <v>883084</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.974187559174862</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9624928920154247</v>
+        <v>0.9628418838692072</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9820801974737154</v>
+        <v>0.9821897599629905</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>21367</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13607</v>
+        <v>13651</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33386</v>
+        <v>32488</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08032492852101566</v>
+        <v>0.08032492852101568</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05115419506263044</v>
+        <v>0.05131743487516395</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1255083681616438</v>
+        <v>0.1221333043769386</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1614,19 +1614,19 @@
         <v>15392</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9797</v>
+        <v>9688</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23615</v>
+        <v>23288</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03962276550714318</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0252185425407836</v>
+        <v>0.02493783270889621</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06078849463560064</v>
+        <v>0.05994858073481985</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1635,19 +1635,19 @@
         <v>36759</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26921</v>
+        <v>26408</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51066</v>
+        <v>49520</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05616578949628222</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04113277259282903</v>
+        <v>0.04034921215767501</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07802474071308994</v>
+        <v>0.07566250248372967</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>244640</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>232621</v>
+        <v>233519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>252400</v>
+        <v>252356</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9196750714789844</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8744916318383562</v>
+        <v>0.8778666956230614</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9488458049373697</v>
+        <v>0.9486825651248361</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>560</v>
@@ -1685,19 +1685,19 @@
         <v>373080</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>364857</v>
+        <v>365184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>378675</v>
+        <v>378784</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9603772344928567</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9392115053643993</v>
+        <v>0.9400514192651797</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9747814574592165</v>
+        <v>0.9750621672911038</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>786</v>
@@ -1706,19 +1706,19 @@
         <v>617720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>603413</v>
+        <v>604959</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>627558</v>
+        <v>628071</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9438342105037177</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9219752592869099</v>
+        <v>0.9243374975162704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9588672274071709</v>
+        <v>0.959650787842325</v>
       </c>
     </row>
     <row r="18">
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4167</v>
+        <v>3106</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.006128710147512776</v>
+        <v>0.006128710147512775</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03548687976170196</v>
+        <v>0.0264483197602116</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1831,19 +1831,19 @@
         <v>7691</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3541</v>
+        <v>3473</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16971</v>
+        <v>17135</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02164978248683002</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009967558827915236</v>
+        <v>0.009777315791040901</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04777539241367239</v>
+        <v>0.04823648375681947</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1852,19 +1852,19 @@
         <v>8410</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4140</v>
+        <v>4115</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18580</v>
+        <v>18419</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01779341510969955</v>
+        <v>0.01779341510969954</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008759213596765189</v>
+        <v>0.008706557579460381</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03931025355015273</v>
+        <v>0.03896944310742314</v>
       </c>
     </row>
     <row r="20">
@@ -1881,16 +1881,16 @@
         <v>116717</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113270</v>
+        <v>114331</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>117437</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9938712898524873</v>
+        <v>0.9938712898524872</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9645131202382978</v>
+        <v>0.9735516802397883</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1902,19 +1902,19 @@
         <v>347532</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>338252</v>
+        <v>338088</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>351682</v>
+        <v>351750</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9783502175131699</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.952224607586327</v>
+        <v>0.9517635162431803</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9900324411720848</v>
+        <v>0.990222684208959</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>531</v>
@@ -1923,19 +1923,19 @@
         <v>464250</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>454080</v>
+        <v>454241</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>468520</v>
+        <v>468545</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9822065848903007</v>
+        <v>0.9822065848903005</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9606897464498476</v>
+        <v>0.961030556892577</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9912407864032348</v>
+        <v>0.9912934424205396</v>
       </c>
     </row>
     <row r="21">
@@ -2027,19 +2027,19 @@
         <v>33541</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23270</v>
+        <v>23911</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46675</v>
+        <v>45866</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02198774852172627</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01525473543592189</v>
+        <v>0.01567443985666919</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03059746809775285</v>
+        <v>0.03006719197716718</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -2048,19 +2048,19 @@
         <v>40555</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30963</v>
+        <v>31454</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53248</v>
+        <v>55448</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02461825720553565</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01879540396228263</v>
+        <v>0.01909388633657613</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03232338659476312</v>
+        <v>0.03365907484427769</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -2069,19 +2069,19 @@
         <v>74096</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57984</v>
+        <v>59400</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90678</v>
+        <v>93092</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02335353396347001</v>
+        <v>0.02335353396347</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01827518608971217</v>
+        <v>0.01872176100827059</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02857973031338062</v>
+        <v>0.02934052954229512</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>1491913</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1478779</v>
+        <v>1479588</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1502184</v>
+        <v>1501543</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9780122514782738</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.969402531902246</v>
+        <v>0.9699328080228327</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9847452645640775</v>
+        <v>0.9843255601433306</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2259</v>
@@ -2119,19 +2119,19 @@
         <v>1606796</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1594103</v>
+        <v>1591903</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1616388</v>
+        <v>1615897</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9753817427944643</v>
+        <v>0.9753817427944642</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9676766134052368</v>
+        <v>0.9663409251557225</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9812045960377174</v>
+        <v>0.980906113663424</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3648</v>
@@ -2140,19 +2140,19 @@
         <v>3098709</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3082127</v>
+        <v>3079713</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3114821</v>
+        <v>3113405</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.97664646603653</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9714202696866194</v>
+        <v>0.9706594704577048</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9817248139102878</v>
+        <v>0.9812782389917294</v>
       </c>
     </row>
     <row r="24">
